--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Amh-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Amh-Egfr.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.363728</v>
+        <v>0.1153286666666667</v>
       </c>
       <c r="H2">
-        <v>1.091184</v>
+        <v>0.345986</v>
       </c>
       <c r="I2">
-        <v>0.3031196334509865</v>
+        <v>0.1212009326543938</v>
       </c>
       <c r="J2">
-        <v>0.3031196334509865</v>
+        <v>0.1212009326543938</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.08532</v>
+        <v>0.4102596666666667</v>
       </c>
       <c r="N2">
-        <v>6.25596</v>
+        <v>1.230779</v>
       </c>
       <c r="O2">
-        <v>0.01753772176136817</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="P2">
-        <v>0.01753772176136816</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="Q2">
-        <v>0.7584892729599999</v>
+        <v>0.04731470034377779</v>
       </c>
       <c r="R2">
-        <v>6.82640345664</v>
+        <v>0.4258323030940001</v>
       </c>
       <c r="S2">
-        <v>0.005316027791871308</v>
+        <v>0.0004241571925825201</v>
       </c>
       <c r="T2">
-        <v>0.005316027791871307</v>
+        <v>0.00042415719258252</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.363728</v>
+        <v>0.1153286666666667</v>
       </c>
       <c r="H3">
-        <v>1.091184</v>
+        <v>0.345986</v>
       </c>
       <c r="I3">
-        <v>0.3031196334509865</v>
+        <v>0.1212009326543938</v>
       </c>
       <c r="J3">
-        <v>0.3031196334509865</v>
+        <v>0.1212009326543938</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>305.694519</v>
       </c>
       <c r="O3">
-        <v>0.8569724579756384</v>
+        <v>0.8692174743460166</v>
       </c>
       <c r="P3">
-        <v>0.8569724579756383</v>
+        <v>0.8692174743460165</v>
       </c>
       <c r="Q3">
-        <v>37.063218668944</v>
+        <v>11.75178042785933</v>
       </c>
       <c r="R3">
-        <v>333.568968020496</v>
+        <v>105.766023850734</v>
       </c>
       <c r="S3">
-        <v>0.2597651773391664</v>
+        <v>0.1053499685702338</v>
       </c>
       <c r="T3">
-        <v>0.2597651773391664</v>
+        <v>0.1053499685702338</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.363728</v>
+        <v>0.1153286666666667</v>
       </c>
       <c r="H4">
-        <v>1.091184</v>
+        <v>0.345986</v>
       </c>
       <c r="I4">
-        <v>0.3031196334509865</v>
+        <v>0.1212009326543938</v>
       </c>
       <c r="J4">
-        <v>0.3031196334509865</v>
+        <v>0.1212009326543938</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,25 +679,25 @@
         <v>14.921347</v>
       </c>
       <c r="N4">
-        <v>44.76404100000001</v>
+        <v>44.764041</v>
       </c>
       <c r="O4">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="P4">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="Q4">
-        <v>5.427311701616001</v>
+        <v>1.720859054380667</v>
       </c>
       <c r="R4">
-        <v>48.845805314544</v>
+        <v>15.487731489426</v>
       </c>
       <c r="S4">
-        <v>0.03803842831994877</v>
+        <v>0.01542680689157747</v>
       </c>
       <c r="T4">
-        <v>0.03803842831994877</v>
+        <v>0.01542680689157746</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.561989</v>
       </c>
       <c r="I5">
-        <v>0.4339043947991109</v>
+        <v>0.5471739422864045</v>
       </c>
       <c r="J5">
-        <v>0.4339043947991109</v>
+        <v>0.5471739422864045</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.08532</v>
+        <v>0.4102596666666667</v>
       </c>
       <c r="N5">
-        <v>6.25596</v>
+        <v>1.230779</v>
       </c>
       <c r="O5">
-        <v>0.01753772176136817</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="P5">
-        <v>0.01753772176136816</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="Q5">
-        <v>1.08574896716</v>
+        <v>0.2136070288256667</v>
       </c>
       <c r="R5">
-        <v>9.771740704440001</v>
+        <v>1.922463259431</v>
       </c>
       <c r="S5">
-        <v>0.00760969454702165</v>
+        <v>0.001914900802589636</v>
       </c>
       <c r="T5">
-        <v>0.007609694547021649</v>
+        <v>0.001914900802589636</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.561989</v>
       </c>
       <c r="I6">
-        <v>0.4339043947991109</v>
+        <v>0.5471739422864045</v>
       </c>
       <c r="J6">
-        <v>0.4339043947991109</v>
+        <v>0.5471739422864045</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>305.694519</v>
       </c>
       <c r="O6">
-        <v>0.8569724579756384</v>
+        <v>0.8692174743460166</v>
       </c>
       <c r="P6">
-        <v>0.8569724579756383</v>
+        <v>0.8692174743460165</v>
       </c>
       <c r="Q6">
         <v>53.054608448699</v>
@@ -818,10 +818,10 @@
         <v>477.4914760382911</v>
       </c>
       <c r="S6">
-        <v>0.3718441157374258</v>
+        <v>0.4756131521421416</v>
       </c>
       <c r="T6">
-        <v>0.3718441157374258</v>
+        <v>0.4756131521421415</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.561989</v>
       </c>
       <c r="I7">
-        <v>0.4339043947991109</v>
+        <v>0.5471739422864045</v>
       </c>
       <c r="J7">
-        <v>0.4339043947991109</v>
+        <v>0.5471739422864045</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,25 +865,25 @@
         <v>14.921347</v>
       </c>
       <c r="N7">
-        <v>44.76404100000001</v>
+        <v>44.764041</v>
       </c>
       <c r="O7">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="P7">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="Q7">
-        <v>7.768993293061001</v>
+        <v>7.768993293061</v>
       </c>
       <c r="R7">
-        <v>69.92093963754901</v>
+        <v>69.920939637549</v>
       </c>
       <c r="S7">
-        <v>0.0544505845146634</v>
+        <v>0.06964588934167334</v>
       </c>
       <c r="T7">
-        <v>0.05445058451466339</v>
+        <v>0.06964588934167334</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,13 +909,13 @@
         <v>0.3155576666666667</v>
       </c>
       <c r="H8">
-        <v>0.946673</v>
+        <v>0.9466730000000001</v>
       </c>
       <c r="I8">
-        <v>0.2629759717499027</v>
+        <v>0.3316251250592017</v>
       </c>
       <c r="J8">
-        <v>0.2629759717499026</v>
+        <v>0.3316251250592017</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.08532</v>
+        <v>0.4102596666666667</v>
       </c>
       <c r="N8">
-        <v>6.25596</v>
+        <v>1.230779</v>
       </c>
       <c r="O8">
-        <v>0.01753772176136817</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="P8">
-        <v>0.01753772176136816</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="Q8">
-        <v>0.6580387134533333</v>
+        <v>0.1294605831407778</v>
       </c>
       <c r="R8">
-        <v>5.92234842108</v>
+        <v>1.165145248267</v>
       </c>
       <c r="S8">
-        <v>0.004611999422475208</v>
+        <v>0.001160561878150191</v>
       </c>
       <c r="T8">
-        <v>0.004611999422475206</v>
+        <v>0.001160561878150191</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>0.3155576666666667</v>
       </c>
       <c r="H9">
-        <v>0.946673</v>
+        <v>0.9466730000000001</v>
       </c>
       <c r="I9">
-        <v>0.2629759717499027</v>
+        <v>0.3316251250592017</v>
       </c>
       <c r="J9">
-        <v>0.2629759717499026</v>
+        <v>0.3316251250592017</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>305.694519</v>
       </c>
       <c r="O9">
-        <v>0.8569724579756384</v>
+        <v>0.8692174743460166</v>
       </c>
       <c r="P9">
-        <v>0.8569724579756383</v>
+        <v>0.8692174743460165</v>
       </c>
       <c r="Q9">
         <v>32.15474970947633</v>
       </c>
       <c r="R9">
-        <v>289.392747385287</v>
+        <v>289.3927473852871</v>
       </c>
       <c r="S9">
-        <v>0.2253631648990461</v>
+        <v>0.2882543536336412</v>
       </c>
       <c r="T9">
-        <v>0.2253631648990461</v>
+        <v>0.2882543536336412</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,13 +1033,13 @@
         <v>0.3155576666666667</v>
       </c>
       <c r="H10">
-        <v>0.946673</v>
+        <v>0.9466730000000001</v>
       </c>
       <c r="I10">
-        <v>0.2629759717499027</v>
+        <v>0.3316251250592017</v>
       </c>
       <c r="J10">
-        <v>0.2629759717499026</v>
+        <v>0.3316251250592017</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,13 +1051,13 @@
         <v>14.921347</v>
       </c>
       <c r="N10">
-        <v>44.76404100000001</v>
+        <v>44.764041</v>
       </c>
       <c r="O10">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="P10">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="Q10">
         <v>4.708545442843667</v>
@@ -1066,10 +1066,10 @@
         <v>42.376908985593</v>
       </c>
       <c r="S10">
-        <v>0.03300080742838134</v>
+        <v>0.04221020954741034</v>
       </c>
       <c r="T10">
-        <v>0.03300080742838133</v>
+        <v>0.04221020954741034</v>
       </c>
     </row>
   </sheetData>
